--- a/TESTCASES/4/Data.xlsx
+++ b/TESTCASES/4/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andra\OneDrive - University of Greenwich\PhD\Application\ObjectController\TESTCASES\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137E2B0D-68ED-451D-A950-F10F800C615B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFC3196-D0AC-4EA1-B603-F85398CDFBD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,16 +324,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -348,8 +348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17687925" y="1943100"/>
-          <a:ext cx="5486400" cy="2943225"/>
+          <a:off x="17478375" y="1419226"/>
+          <a:ext cx="4724400" cy="352424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,73 +389,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>. Look at data from instant starts moving. Find expected CumDisp by taking acel at constant rate, then travel at max speed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Max speeds (m/s):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>EC = 1.48</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>RS = 1.125</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>ST = 1.215</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>TO = </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Max Acel (m/s2):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>EC = 1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>RS = 0.75</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>ST = 0.81</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TO = </a:t>
+            <a:t>. Look at data from instant starts moving.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -728,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX166"/>
+  <dimension ref="A1:AX175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +686,8 @@
     <col min="30" max="30" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="13.5703125" style="4" customWidth="1"/>
     <col min="35" max="35" width="14.28515625" style="4" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="4"/>
+    <col min="36" max="36" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2356,11 +2291,62 @@
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
+      <c r="V165"/>
+      <c r="W165"/>
+      <c r="X165"/>
     </row>
     <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
+      <c r="V166"/>
+      <c r="W166"/>
+      <c r="X166"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V167"/>
+      <c r="W167"/>
+      <c r="X167"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V168"/>
+      <c r="W168"/>
+      <c r="X168"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V169"/>
+      <c r="W169"/>
+      <c r="X169"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V170"/>
+      <c r="W170"/>
+      <c r="X170"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V171"/>
+      <c r="W171"/>
+      <c r="X171"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V172"/>
+      <c r="W172"/>
+      <c r="X172"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V173"/>
+      <c r="W173"/>
+      <c r="X173"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V174"/>
+      <c r="W174"/>
+      <c r="X174"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V175"/>
+      <c r="W175"/>
+      <c r="X175"/>
     </row>
   </sheetData>
   <mergeCells count="4">
